--- a/문서/기능명세서.xlsx
+++ b/문서/기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15290" windowHeight="11460"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15020" windowHeight="11050"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,36 +19,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
-  <x:si>
-    <x:t>게시판 페이지 마지막 또는 맨앞 페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">본인이 작성한 답글 삭제
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">text 답글 입력 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(로그인 후 사용 가능)
 </x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
+      <x:t>별도 페이지 필요 X</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">text 수정 답글 입력 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(로그인 후 사용 가능)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
+      <x:t>별도 페이지 필요 X</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판에서 본인이 작성한 게시글 
+삭제</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(로그인 후 사용 가능)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
+      <x:t>별도 페이지 필요 X</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">본인이 작성한 답글 text 수정
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(로그인 후 사용 가능) </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
+      <x:t>별도 페이지 필요 X</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">게시판에서 게시글 조회 후
+게시글 답글 text 등록 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(로그인 후 사용 가능)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
+      <x:t>별도 페이지 필요 X</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">본인이 작성한 답글 삭제, 관리자 판단후 삭제 가능
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
       <x:t>(로그인 후 사용 가능)</x:t>
     </x:r>
     <x:r>
@@ -60,83 +154,60 @@
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
       <x:t>별도 페이지 필요 X</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">본인이 작성한 답글 수정
+    <x:t>게시글 글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 답글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">게시글 등록 </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">게시판에서 text 입력 (id, 제목, 유저네임)
 </x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">(로그인 후 사용 가능) </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
       <x:t>별도 페이지 필요 X</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>게시판 페이지 다음 페이지 이동</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -144,253 +215,91 @@
 (로그인 후 사용 가능) </x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
       <x:t>별도 페이지 필요 X</x:t>
     </x:r>
   </x:si>
   <x:si>
+    <x:r>
+      <x:t xml:space="preserve">게시판에서 text 글 검색(id, 제목, 유저네임)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+      </x:rPr>
+      <x:t>별도 페이지 필요 X</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:t>한개의 화살표 표시를 누르면 +1,-1로 해서 하나씩 이동 또는 10번째가 마지막 페이지면 다음 페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>구현여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디자인여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부페이지</x:t>
+    <x:t>게시글 제목 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 조회 화면</x:t>
   </x:si>
   <x:si>
     <x:t>게시글 답글 등록</x:t>
   </x:si>
   <x:si>
+    <x:t>게시판 등록 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 main 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 글 삭제</x:t>
+  </x:si>
+  <x:si>
     <x:t>게시글 답글 삭제</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>글작성 후 등록</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+    <x:t xml:space="preserve">게시판 페이지 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 제목 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판에서 게시글 등록 페이지로 
+이동</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
       <x:t>(로그인 후 사용 가능)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Q&amp;A게시판 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">게시글 등록 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">게시판에서 게시글 조회 후
-게시글 답글 등록 </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">(로그인 후 사용 가능)
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>별도 페이지 필요 X</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판에서 본인이 작성한 게시글 
-삭제</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">(로그인 후 사용 가능)
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>별도 페이지 필요 X</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">게시판 페이지 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 main 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">게시판에서 글 검색(id, 제목, 유저네임)
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>별도 페이지 필요 X</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -398,58 +307,58 @@
 또는 맨앞으로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글 답글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 제목 조회</x:t>
+    <x:t>게시판 페이지 다음 페이지 이동</x:t>
   </x:si>
   <x:si>
     <x:t>게시판에서 게시글 클릭 페이지 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글 글 수정</x:t>
+    <x:t>Q&amp;A 답글 수정 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>게시판 페이지 숫자를 누르면 해당 페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>게시판에서 게시글 등록 페이지로 
-이동</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ff0000ff"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+    <x:t>게시판 페이지 마지막 또는 맨앞 페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>text 글 작성 후 등록</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
       <x:t>(로그인 후 사용 가능)</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>게시판 조회 화면</x:t>
+    <x:r>
+      <x:t xml:space="preserve">text 글 입력 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff0000ff"/>
+      </x:rPr>
+      <x:t>(로그인 후 사용 가능)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>게시글 답글 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 답글 수정 입력</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -480,46 +389,26 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff0000ff"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff0000ff"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff0000ff"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -529,7 +418,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="5">
+  <x:borders count="7">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -600,13 +489,44 @@
         <x:color rgb="ff808080"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff808080"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff808080"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff808080"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff808080"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -645,24 +565,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -681,6 +583,63 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1349,385 +1308,460 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G25"/>
+  <x:dimension ref="A1:G29"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D17" activeCellId="0" sqref="D16:D17"/>
+    <x:sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E18" activeCellId="0" sqref="E18:E18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="20.58203125" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="39.16796875" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="41.33203125" style="1" customWidth="1"/>
-    <x:col min="6" max="7" width="11.375" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="20.58203125" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="19.91796875" style="2" customWidth="1"/>
+    <x:col min="4" max="4" width="39.16796875" style="2" customWidth="1"/>
+    <x:col min="5" max="5" width="41.33203125" style="2" customWidth="1"/>
+    <x:col min="6" max="7" width="11.375" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" s="2" customFormat="1">
-      <x:c r="A1" s="3" t="s">
+    <x:row r="1" spans="1:7" s="3" customFormat="1">
+      <x:c r="A1" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="E1" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
+    </x:row>
+    <x:row r="2" spans="1:7" s="3" customFormat="1" ht="32.75" customHeight="1">
+      <x:c r="A2" s="17" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B2" s="17" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D2" s="5" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
+      <x:c r="E2" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="4"/>
+      <x:c r="G2" s="4"/>
+    </x:row>
+    <x:row r="3" spans="1:7" s="1" customFormat="1" ht="32.75" customHeight="1">
+      <x:c r="A3" s="18"/>
+      <x:c r="B3" s="18"/>
+      <x:c r="C3" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E3" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G3" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" s="1" customFormat="1">
+      <x:c r="A4" s="18"/>
+      <x:c r="B4" s="18"/>
+      <x:c r="C4" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F4" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" s="1" customFormat="1" ht="32.75">
+      <x:c r="A5" s="18"/>
+      <x:c r="B5" s="18"/>
+      <x:c r="C5" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F5" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" s="1" customFormat="1">
+      <x:c r="A6" s="18"/>
+      <x:c r="B6" s="18"/>
+      <x:c r="C6" s="12" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E6" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G6" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" s="1" customFormat="1" ht="49.149999999999999">
+      <x:c r="A7" s="18"/>
+      <x:c r="B7" s="18"/>
+      <x:c r="C7" s="13"/>
+      <x:c r="D7" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E7" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F1" s="3" t="s">
+      <x:c r="F7" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G7" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" s="7" customFormat="1" ht="32.75">
+      <x:c r="A8" s="18"/>
+      <x:c r="B8" s="19"/>
+      <x:c r="C8" s="14"/>
+      <x:c r="D8" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E8" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F8" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7" s="7" customFormat="1">
+      <x:c r="A9" s="15" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="12" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E9" s="9" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F9" s="10"/>
+      <x:c r="G9" s="10"/>
+    </x:row>
+    <x:row r="10" spans="1:7" s="7" customFormat="1">
+      <x:c r="A10" s="16"/>
+      <x:c r="B10" s="14"/>
+      <x:c r="C10" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E10" s="9" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F10" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G10" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7" s="7" customFormat="1" ht="32.75" customHeight="1">
+      <x:c r="A11" s="13" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B11" s="12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G1" s="3" t="s">
+      <x:c r="E11" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F11" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G11" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7" s="7" customFormat="1" ht="49.149999999999999">
+      <x:c r="A12" s="13"/>
+      <x:c r="B12" s="13"/>
+      <x:c r="C12" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E12" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F12" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G12" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7" s="7" customFormat="1" ht="32.75">
+      <x:c r="A13" s="13"/>
+      <x:c r="B13" s="12"/>
+      <x:c r="C13" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D13" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E13" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F13" s="4"/>
+      <x:c r="G13" s="10"/>
+    </x:row>
+    <x:row r="14" spans="1:7" s="7" customFormat="1" ht="49.149999999999999">
+      <x:c r="A14" s="13"/>
+      <x:c r="B14" s="13"/>
+      <x:c r="C14" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D14" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E14" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F14" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G14" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7" s="7" customFormat="1" ht="32.75">
+      <x:c r="A15" s="13"/>
+      <x:c r="B15" s="12"/>
+      <x:c r="C15" s="8" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D15" s="8" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E15" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F15" s="4"/>
+      <x:c r="G15" s="10"/>
+    </x:row>
+    <x:row r="16" spans="1:7" s="7" customFormat="1" ht="32.75">
+      <x:c r="A16" s="13"/>
+      <x:c r="B16" s="13"/>
+      <x:c r="C16" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" customFormat="1" ht="32.75" customHeight="1">
-      <x:c r="A2" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s">
+      <x:c r="D16" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E16" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F16" s="4" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D2" s="4" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" customFormat="1">
-      <x:c r="A3" s="7"/>
-      <x:c r="B3" s="9"/>
-      <x:c r="C3" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" customFormat="1" ht="32.75">
-      <x:c r="A4" s="7"/>
-      <x:c r="B4" s="9"/>
-      <x:c r="C4" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D4" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E4" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" customFormat="1">
-      <x:c r="A5" s="7"/>
-      <x:c r="B5" s="9"/>
-      <x:c r="C5" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="13" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="13" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F5" s="3"/>
-      <x:c r="G5" s="3"/>
-    </x:row>
-    <x:row r="6" spans="1:7" customFormat="1" ht="49.149999999999999">
-      <x:c r="A6" s="6"/>
-      <x:c r="B6" s="8"/>
-      <x:c r="C6" s="7"/>
-      <x:c r="D6" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="5" t="s">
+      <x:c r="G16" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7" s="7" customFormat="1" ht="49.149999999999999">
+      <x:c r="A17" s="14"/>
+      <x:c r="B17" s="14"/>
+      <x:c r="C17" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D17" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E17" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F6" s="3"/>
-      <x:c r="G6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:7" s="12" customFormat="1" ht="32.75">
-      <x:c r="A7" s="7"/>
-      <x:c r="B7" s="11"/>
-      <x:c r="C7" s="10"/>
-      <x:c r="D7" s="13" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="14" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F7" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G7" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" s="12" customFormat="1">
-      <x:c r="A8" s="7"/>
-      <x:c r="B8" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C8" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D8" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E8" s="14" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G8" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" s="12" customFormat="1" ht="32.75" customHeight="1">
-      <x:c r="A9" s="7"/>
-      <x:c r="B9" s="6" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s">
+      <x:c r="F17" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G17" s="10" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D9" s="13" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E9" s="14" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G9" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7" s="12" customFormat="1" ht="49.149999999999999">
-      <x:c r="A10" s="7"/>
-      <x:c r="B10" s="7"/>
-      <x:c r="C10" s="13" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="13" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E10" s="14" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F10" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G10" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7" s="12" customFormat="1" ht="49.149999999999999">
-      <x:c r="A11" s="7"/>
-      <x:c r="B11" s="7"/>
-      <x:c r="C11" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D11" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E11" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F11" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G11" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7" s="12" customFormat="1" ht="32.75">
-      <x:c r="A12" s="7"/>
-      <x:c r="B12" s="7"/>
-      <x:c r="C12" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D12" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E12" s="14" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F12" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G12" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7" s="12" customFormat="1" ht="32.75">
-      <x:c r="A13" s="10"/>
-      <x:c r="B13" s="10"/>
-      <x:c r="C13" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D13" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E13" s="14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F13" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G13" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="4"/>
-      <x:c r="B14" s="4"/>
-      <x:c r="C14" s="4"/>
-      <x:c r="D14" s="4"/>
-      <x:c r="E14" s="4"/>
-      <x:c r="F14" s="3"/>
-      <x:c r="G14" s="3"/>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="A15" s="4"/>
-      <x:c r="B15" s="4"/>
-      <x:c r="C15" s="4"/>
-      <x:c r="D15" s="4"/>
-      <x:c r="E15" s="4"/>
-      <x:c r="F15" s="3"/>
-      <x:c r="G15" s="3"/>
-    </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="A16" s="4"/>
-      <x:c r="B16" s="4"/>
-      <x:c r="C16" s="4"/>
-      <x:c r="D16" s="4"/>
-      <x:c r="E16" s="4"/>
-      <x:c r="F16" s="3"/>
-      <x:c r="G16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:7">
-      <x:c r="A17" s="4"/>
-      <x:c r="B17" s="4"/>
-      <x:c r="C17" s="4"/>
-      <x:c r="D17" s="4"/>
-      <x:c r="E17" s="4"/>
-      <x:c r="F17" s="3"/>
-      <x:c r="G17" s="3"/>
     </x:row>
     <x:row r="18" spans="1:7">
-      <x:c r="A18" s="4"/>
-      <x:c r="B18" s="4"/>
-      <x:c r="C18" s="4"/>
-      <x:c r="D18" s="4"/>
-      <x:c r="E18" s="4"/>
-      <x:c r="F18" s="3"/>
-      <x:c r="G18" s="3"/>
+      <x:c r="A18" s="5"/>
+      <x:c r="B18" s="5"/>
+      <x:c r="C18" s="5"/>
+      <x:c r="D18" s="5"/>
+      <x:c r="E18" s="5"/>
+      <x:c r="F18" s="4"/>
+      <x:c r="G18" s="4"/>
     </x:row>
     <x:row r="19" spans="1:7">
-      <x:c r="A19" s="4"/>
-      <x:c r="B19" s="4"/>
-      <x:c r="C19" s="4"/>
-      <x:c r="D19" s="4"/>
-      <x:c r="E19" s="4"/>
-      <x:c r="F19" s="3"/>
-      <x:c r="G19" s="3"/>
+      <x:c r="A19" s="5"/>
+      <x:c r="B19" s="5"/>
+      <x:c r="C19" s="5"/>
+      <x:c r="D19" s="5"/>
+      <x:c r="E19" s="5"/>
+      <x:c r="F19" s="4"/>
+      <x:c r="G19" s="4"/>
     </x:row>
     <x:row r="20" spans="1:7">
-      <x:c r="A20" s="4"/>
-      <x:c r="B20" s="4"/>
-      <x:c r="C20" s="4"/>
-      <x:c r="D20" s="4"/>
-      <x:c r="E20" s="4"/>
-      <x:c r="F20" s="3"/>
-      <x:c r="G20" s="3"/>
+      <x:c r="A20" s="5"/>
+      <x:c r="B20" s="5"/>
+      <x:c r="C20" s="5"/>
+      <x:c r="D20" s="5"/>
+      <x:c r="E20" s="5"/>
+      <x:c r="F20" s="4"/>
+      <x:c r="G20" s="4"/>
     </x:row>
     <x:row r="21" spans="1:7">
-      <x:c r="A21" s="4"/>
-      <x:c r="B21" s="4"/>
-      <x:c r="C21" s="4"/>
-      <x:c r="D21" s="4"/>
-      <x:c r="E21" s="4"/>
-      <x:c r="F21" s="3"/>
-      <x:c r="G21" s="3"/>
+      <x:c r="A21" s="5"/>
+      <x:c r="B21" s="5"/>
+      <x:c r="C21" s="5"/>
+      <x:c r="D21" s="5"/>
+      <x:c r="E21" s="5"/>
+      <x:c r="F21" s="4"/>
+      <x:c r="G21" s="4"/>
     </x:row>
     <x:row r="22" spans="1:7">
-      <x:c r="A22" s="4"/>
-      <x:c r="B22" s="4"/>
-      <x:c r="C22" s="4"/>
-      <x:c r="D22" s="4"/>
-      <x:c r="E22" s="4"/>
-      <x:c r="F22" s="3"/>
-      <x:c r="G22" s="3"/>
+      <x:c r="A22" s="5"/>
+      <x:c r="B22" s="5"/>
+      <x:c r="C22" s="5"/>
+      <x:c r="D22" s="5"/>
+      <x:c r="E22" s="5"/>
+      <x:c r="F22" s="4"/>
+      <x:c r="G22" s="4"/>
     </x:row>
     <x:row r="23" spans="1:7">
-      <x:c r="A23" s="4"/>
-      <x:c r="B23" s="4"/>
-      <x:c r="C23" s="4"/>
-      <x:c r="D23" s="4"/>
-      <x:c r="E23" s="4"/>
-      <x:c r="F23" s="3"/>
-      <x:c r="G23" s="3"/>
+      <x:c r="A23" s="5"/>
+      <x:c r="B23" s="5"/>
+      <x:c r="C23" s="5"/>
+      <x:c r="D23" s="5"/>
+      <x:c r="E23" s="5"/>
+      <x:c r="F23" s="4"/>
+      <x:c r="G23" s="4"/>
     </x:row>
     <x:row r="24" spans="1:7">
-      <x:c r="A24" s="4"/>
-      <x:c r="B24" s="4"/>
-      <x:c r="C24" s="4"/>
-      <x:c r="D24" s="4"/>
-      <x:c r="E24" s="4"/>
-      <x:c r="F24" s="3"/>
-      <x:c r="G24" s="3"/>
+      <x:c r="A24" s="5"/>
+      <x:c r="B24" s="5"/>
+      <x:c r="C24" s="5"/>
+      <x:c r="D24" s="5"/>
+      <x:c r="E24" s="5"/>
+      <x:c r="F24" s="4"/>
+      <x:c r="G24" s="4"/>
     </x:row>
     <x:row r="25" spans="1:7">
-      <x:c r="A25" s="4"/>
-      <x:c r="B25" s="4"/>
-      <x:c r="C25" s="4"/>
-      <x:c r="D25" s="4"/>
-      <x:c r="E25" s="4"/>
-      <x:c r="F25" s="3"/>
-      <x:c r="G25" s="3"/>
+      <x:c r="A25" s="5"/>
+      <x:c r="B25" s="5"/>
+      <x:c r="C25" s="5"/>
+      <x:c r="D25" s="5"/>
+      <x:c r="E25" s="5"/>
+      <x:c r="F25" s="4"/>
+      <x:c r="G25" s="4"/>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="5"/>
+      <x:c r="B26" s="5"/>
+      <x:c r="C26" s="5"/>
+      <x:c r="D26" s="5"/>
+      <x:c r="E26" s="5"/>
+      <x:c r="F26" s="4"/>
+      <x:c r="G26" s="4"/>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="5"/>
+      <x:c r="B27" s="5"/>
+      <x:c r="C27" s="5"/>
+      <x:c r="D27" s="5"/>
+      <x:c r="E27" s="5"/>
+      <x:c r="F27" s="4"/>
+      <x:c r="G27" s="4"/>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="5"/>
+      <x:c r="B28" s="5"/>
+      <x:c r="C28" s="5"/>
+      <x:c r="D28" s="5"/>
+      <x:c r="E28" s="5"/>
+      <x:c r="F28" s="4"/>
+      <x:c r="G28" s="4"/>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="5"/>
+      <x:c r="B29" s="5"/>
+      <x:c r="C29" s="5"/>
+      <x:c r="D29" s="5"/>
+      <x:c r="E29" s="5"/>
+      <x:c r="F29" s="4"/>
+      <x:c r="G29" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="B2:B7"/>
-    <x:mergeCell ref="B9:B13"/>
-    <x:mergeCell ref="A2:A13"/>
-    <x:mergeCell ref="C5:C7"/>
+  <x:mergeCells count="7">
+    <x:mergeCell ref="B11:B17"/>
+    <x:mergeCell ref="C6:C8"/>
+    <x:mergeCell ref="A11:A17"/>
+    <x:mergeCell ref="A9:A10"/>
+    <x:mergeCell ref="B9:B10"/>
+    <x:mergeCell ref="A2:A8"/>
+    <x:mergeCell ref="B2:B8"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </x:worksheet>
 </file>